--- a/app/database/insert_dicts/data/zones_dict.xlsx
+++ b/app/database/insert_dicts/data/zones_dict.xlsx
@@ -1,60 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27729"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\timosii\my_administrator\app\database\insert_dicts\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C07440A-93EF-439A-8D1A-0B644674658D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="new" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="new" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'new'!$A$1:$A$1</definedName>
-  </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>zone_name</t>
+  </si>
+  <si>
+    <t>Входная группа</t>
+  </si>
+  <si>
+    <t>Зона ресепшн</t>
+  </si>
+  <si>
+    <t>Медицинский пост</t>
+  </si>
+  <si>
+    <t>Зона комфортного пребывания</t>
+  </si>
+  <si>
+    <t>Коридоры</t>
+  </si>
+  <si>
+    <t>Туалетная комната</t>
+  </si>
+  <si>
+    <t>Доступная среда</t>
+  </si>
+  <si>
+    <t>Инженерные системы</t>
+  </si>
+  <si>
+    <t>Окна, жалюзи</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="16"/>
+      <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DCE6F1"/>
+        <fgColor rgb="FFDCE6F1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A6A6A6"/>
+        <fgColor rgb="FFA6A6A6"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -63,131 +119,73 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
-    <border/>
     <border>
       <left style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="title" xfId="1" hidden="0"/>
-    <cellStyle name="body" xfId="2" hidden="0"/>
-    <cellStyle name="header" xfId="3" hidden="0"/>
-    <cellStyle name="index" xfId="4" hidden="0"/>
-    <cellStyle name="total_row" xfId="5" hidden="0"/>
+    <cellStyle name="body" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="header" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="index" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="title" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="total_row" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -475,96 +473,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="29.97" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>zone_name</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Входная группа</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Зона ресепшн</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Медицинский пост</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Зона комфортного пребывания</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Коридоры</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Туалетная комната</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Доступная среда</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Инженерные системы</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>Окна, жалюзи</t>
-        </is>
-      </c>
-    </row>
-    <row r="11"/>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$A$1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>